--- a/generated_docs/WR_89804587_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Jacob Henderson</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/13/2025 to 07/13/25</t>
+          <t>07/07/2025 to 07/13/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>837-1</t>
+          <t>#NO MATCH-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89804587_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>11167.04</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>3891.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +960,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>3891.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1121,18 +1121,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>1297.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ANC-EXP-8-72-S58</t>
+          <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1151,25 +1151,60 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="inlineStr">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>ANC-EXP-8-72-S58</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H35" s="16" t="n">
-        <v>3384.68</v>
+      <c r="H36" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A27:G27"/>
@@ -1177,7 +1212,6 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A35:G35"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>

--- a/generated_docs/WR_89804587_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I36"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>11167.04</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +839,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>0</v>
+        <v>3891.18</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +922,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="25">
@@ -960,7 +956,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="26">
@@ -994,7 +990,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="27">
@@ -1004,7 +1000,7 @@
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>0</v>
+        <v>3891.18</v>
       </c>
     </row>
     <row r="30">
@@ -1087,7 +1083,7 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="33">
@@ -1121,18 +1117,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>1297.06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>ANC-DSC-16-96-D1</t>
+          <t>ANC-EXP-8-72-S58</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1142,7 +1138,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>ANC,Disc,16in,96in,Db Eye 1in</t>
+          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1151,60 +1147,25 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>ANC-EXP-8-72-S58</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Expanding,8in,72in,Sg Eye 5/8in</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="15" t="inlineStr">
+      <c r="A35" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H36" s="16" t="n">
-        <v>0</v>
+      <c r="H35" s="16" t="n">
+        <v>3384.68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="A27:G27"/>
@@ -1212,6 +1173,7 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
